--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-190</v>
+        <v>-137</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-183</v>
+        <v>-133</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45297</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-579</v>
+        <v>-485</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45297</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-162</v>
+        <v>-134</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45297</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-178</v>
+        <v>-185</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45297</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-137</v>
+        <v>-248</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-133</v>
+        <v>-196</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45297</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-485</v>
+        <v>-443</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45297</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-134</v>
+        <v>-169</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45297</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-185</v>
+        <v>-169</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45297</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-248</v>
+        <v>-331</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-196</v>
+        <v>-295</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-443</v>
+        <v>-621</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45297</v>
@@ -598,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-169</v>
+        <v>-286</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-169</v>
+        <v>-286</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45297</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-331</v>
+        <v>-355</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-295</v>
+        <v>-313</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45297</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-621</v>
+        <v>-663</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45297</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-286</v>
+        <v>-294</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45297</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-286</v>
+        <v>-294</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45297</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-355</v>
+        <v>-366</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-313</v>
+        <v>-295</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45297</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-663</v>
+        <v>-656</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45297</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-294</v>
+        <v>-316</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45297</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-294</v>
+        <v>-316</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45297</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-366</v>
+        <v>-282</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-295</v>
+        <v>-265</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-656</v>
+        <v>-547</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45297</v>
@@ -598,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-316</v>
+        <v>-216</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-316</v>
+        <v>-216</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45297</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,141 +502,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-282</v>
+        <v>-19</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-265</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-547</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-216</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-216</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,13 +502,141 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-19</v>
+        <v>-99</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-95</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-454</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-226</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-99</v>
+        <v>-82</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-95</v>
+        <v>-241</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45297</v>
@@ -546,12 +546,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-454</v>
+        <v>-61</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -598,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-105</v>
+        <v>-32</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-226</v>
+        <v>-171</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45297</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240106.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-82</v>
+        <v>-239</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45297</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-241</v>
+        <v>-562</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45297</v>
@@ -546,12 +546,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-61</v>
+        <v>-863</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -598,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-32</v>
+        <v>-113</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -615,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -627,15 +627,47 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-171</v>
+        <v>-32</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
